--- a/src/test/resources/datasheets/Verify_BackButtonFunctionality.xlsx
+++ b/src/test/resources/datasheets/Verify_BackButtonFunctionality.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Role</t>
   </si>
@@ -30,10 +30,25 @@
     <t>XEEVA -MJ</t>
   </si>
   <si>
-    <t>driver get page title</t>
-  </si>
-  <si>
-    <t>ActualPageTitle</t>
+    <t>DeskTops</t>
+  </si>
+  <si>
+    <t>Itemname</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>EA-EACH</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -69,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,19 +381,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +405,17 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -397,6 +424,15 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
